--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 2 (39, 17, 23, 27, 8)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(39, 17, 23, 27, 8)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7691059073532331</v>
+        <v>0.9967919210433758</v>
       </c>
       <c r="E2">
-        <v>0.7691059073532331</v>
+        <v>0.9967919210433758</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>8.070857336163857E-13</v>
+        <v>1.901561008950686E-11</v>
       </c>
       <c r="E3">
-        <v>8.070857336163857E-13</v>
+        <v>1.901561008950686E-11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.735058674278987</v>
+        <v>0.9900387634335711</v>
       </c>
       <c r="E4">
-        <v>0.735058674278987</v>
+        <v>0.9900387634335711</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.403094015196594E-12</v>
+        <v>1.1062807477891E-06</v>
       </c>
       <c r="E5">
-        <v>6.403094015196594E-12</v>
+        <v>1.1062807477891E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.089637439563992E-21</v>
+        <v>7.294668034478011E-31</v>
       </c>
       <c r="E6">
-        <v>1.089637439563992E-21</v>
+        <v>7.294668034478011E-31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.078956957635296E-11</v>
+        <v>1.005831565672557E-17</v>
       </c>
       <c r="E7">
-        <v>0.9999999999192104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999784585504706</v>
+        <v>0.9999999423688013</v>
       </c>
       <c r="E8">
-        <v>2.154144952937198E-05</v>
+        <v>5.763119870216826E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9998188287103199</v>
+        <v>0.9905236405392707</v>
       </c>
       <c r="E9">
-        <v>0.0001811712896800932</v>
+        <v>0.009476359460729333</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.2830698285739E-14</v>
+        <v>5.550305138335896E-08</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999871</v>
+        <v>0.9999999444969486</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001029293663148004</v>
+        <v>0.001586649997082145</v>
       </c>
       <c r="E11">
-        <v>0.998970706336852</v>
+        <v>0.9984133500029179</v>
       </c>
       <c r="F11">
-        <v>6.48992395401001</v>
+        <v>7.26517391204834</v>
       </c>
       <c r="G11">
         <v>0.5</v>
